--- a/pred_ohlcv/54_21/2020-01-11 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 DAC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-1481753.0685</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1445753.0685</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1493950.0685</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1493950.0685</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-1672953.2096</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1767133.8759</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1990627.402</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2661107.9806</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2655705.9806</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2655705.9806</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2655705.9806</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2859331.5818</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2859081.5818</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2859081.5818</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2853081.5818</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2881854.6338</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2881854.6338</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2881618.6338</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-7028632.477600001</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-6899758.477600001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-6718340.353099996</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-6763599.828499996</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-6708994.412999996</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-6712590.433199996</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-6712590.433199996</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-6564284.929399996</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-6552746.409499995</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-6430127.529199996</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-6451938.705399996</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-6500769.105599996</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-6459544.699199996</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-6509776.800799996</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-6509776.800799996</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-6503685.501199996</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-6567431.943499996</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-6521302.460799997</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-6521302.460799997</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-6566836.176599997</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-6566836.176599997</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-6537983.614199996</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-6641404.943499996</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-6604328.783499996</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-6604328.783499996</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-6458765.178299996</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-6555195.511999995</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-6507794.996899995</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-6545481.491599995</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-6592736.969999995</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-6553596.878299995</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-6594886.286599996</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-6588269.659099995</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-6501467.108399996</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-6515223.657399995</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-6557788.686999995</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-6519801.992499995</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-6519801.992499995</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-6572352.132699995</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-6540386.771999995</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-6526879.247699996</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-6590436.466799996</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-6546337.215399995</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-6493286.308499996</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-6450002.542199995</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 DAC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-1445753.0685</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1767133.8759</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1990627.402</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-2661107.9806</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-2655705.9806</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-2655705.9806</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-2655705.9806</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2859331.5818</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2859081.5818</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-2859081.5818</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-2853081.5818</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-2881854.6338</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-2881854.6338</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-2881618.6338</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-7028632.477600001</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-6899758.477600001</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-6564284.929399996</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-6479942.473499996</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-6459544.699199996</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-6509776.800799996</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-6509776.800799996</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-6503685.501199996</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-6567431.943499996</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-6521302.460799997</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-6521302.460799997</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-6566836.176599997</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-6566836.176599997</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-6602767.133599997</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-6563248.701899996</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-6641404.943499996</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-6604328.783499996</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-6604328.783499996</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-6458765.178299996</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-6496835.445499996</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-6516072.960399996</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-6555195.511999995</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-6507794.996899995</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-6545481.491599995</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-6592736.969999995</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-6553596.878299995</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-6594886.286599996</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-6633762.880899996</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-6588269.659099995</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-6547056.925299996</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-6547056.925299996</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-6501467.108399996</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-6501467.108399996</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-6534041.583999995</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-6515223.657399995</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-6557788.686999995</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-6557788.686999995</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-6519801.992499995</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-6519801.992499995</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-6572352.132699995</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-6540386.771999995</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-6526879.247699996</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-6590436.466799996</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-6546337.215399995</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-6493286.308499996</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-6450002.542199995</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-5239225.906900001</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-5237282.488800001</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-5237282.488800001</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-5279233.711700002</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-5227209.375500002</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-5274697.727600002</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-5236748.553000002</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-5324114.844600001</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-5301023.293200001</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-5345556.080800002</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-5306245.250200002</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-5257523.015000002</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-5295121.934200002</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-5277327.426900002</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-5242225.477400002</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-5284078.878800002</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-3830791.503400002</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-3830791.503400002</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-3853274.411600002</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-3814413.548700002</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-3808930.532600001</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-3808930.532600001</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-3661762.666700002</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-3649309.703700002</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-3610538.249400002</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-3677730.445400002</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-3628839.608800002</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-3649185.127400002</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-3686097.351300002</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
